--- a/untuk_cs/data_blast/data_each_crm/Firda/Refill_data_2_WA_1096_Firda.xlsx
+++ b/untuk_cs/data_blast/data_each_crm/Firda/Refill_data_2_WA_1096_Firda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\isra holding company\untuk_cs\data_blast\data_each_crm\Firda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416EC70A-1ADC-42F6-A973-F3A5ED039743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D38662-8D18-46CA-A4CF-620439DAEAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="206">
   <si>
     <t>No</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Ahmad</t>
   </si>
   <si>
-    <t>Refill_WA_1096_2nd</t>
-  </si>
-  <si>
     <t>Rima y</t>
   </si>
   <si>
@@ -643,6 +640,9 @@
   </si>
   <si>
     <t>Budi prayogo</t>
+  </si>
+  <si>
+    <t>Refill_WA_1096</t>
   </si>
 </sst>
 </file>
@@ -720,27 +720,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1087,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D235"/>
+  <dimension ref="A1:D224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C224"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="C229" sqref="C229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,10 +1099,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2" s="5">
         <v>6285742986003</v>
@@ -1133,10 +1113,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5">
         <v>628126951010</v>
@@ -1147,10 +1127,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="5">
         <v>6281212621971</v>
@@ -1161,10 +1141,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5">
         <v>6282287327359</v>
@@ -1175,10 +1155,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5">
         <v>6285366768750</v>
@@ -1189,10 +1169,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="5">
         <v>62895347276209</v>
@@ -1203,10 +1183,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="5">
         <v>6282352546474</v>
@@ -1217,10 +1197,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="5">
         <v>6281325415646</v>
@@ -1231,10 +1211,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5">
         <v>6281212835238</v>
@@ -1245,10 +1225,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="5">
         <v>6282294223717</v>
@@ -1259,10 +1239,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="5">
         <v>6285381977974</v>
@@ -1273,10 +1253,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="5">
         <v>6282363364904</v>
@@ -1287,10 +1267,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="5">
         <v>628126748647</v>
@@ -1301,10 +1281,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="5">
         <v>6281260711140</v>
@@ -1315,10 +1295,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="5">
         <v>62811940403</v>
@@ -1329,10 +1309,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="5">
         <v>6287860370522</v>
@@ -1343,10 +1323,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="5">
         <v>6282136822558</v>
@@ -1357,10 +1337,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="5">
         <v>6281362048890</v>
@@ -1371,10 +1351,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="5">
         <v>6281266828277</v>
@@ -1385,10 +1365,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="5">
         <v>6281363373357</v>
@@ -1399,10 +1379,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="5">
         <v>6282174145556</v>
@@ -1413,10 +1393,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="5">
         <v>628121010013</v>
@@ -1427,10 +1407,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="5">
         <v>6281380095515</v>
@@ -1441,10 +1421,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="5">
         <v>6282152153016</v>
@@ -1455,10 +1435,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="5">
         <v>6285648628745</v>
@@ -1469,10 +1449,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="5">
         <v>6281357589293</v>
@@ -1483,7 +1463,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1497,10 +1477,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="5">
         <v>6285386426022</v>
@@ -1511,10 +1491,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="5">
         <v>6282152516436</v>
@@ -1525,7 +1505,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -1539,10 +1519,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="5">
         <v>628989113929</v>
@@ -1553,10 +1533,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" s="5">
         <v>6281260820428</v>
@@ -1567,10 +1547,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="5">
         <v>6281356791988</v>
@@ -1581,10 +1561,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" s="5">
         <v>6282173323838</v>
@@ -1595,10 +1575,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" s="5">
         <v>628561805677</v>
@@ -1609,10 +1589,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D37" s="5">
         <v>6285664504311</v>
@@ -1623,10 +1603,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" s="5">
         <v>6281347018081</v>
@@ -1637,10 +1617,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D39" s="5">
         <v>6281346676069</v>
@@ -1651,10 +1631,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" s="5">
         <v>6281371035672</v>
@@ -1665,10 +1645,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" s="5">
         <v>6281257046211</v>
@@ -1679,10 +1659,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" s="5">
         <v>6285711609962</v>
@@ -1693,10 +1673,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" s="5">
         <v>6281347296371</v>
@@ -1707,10 +1687,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D44" s="5">
         <v>6289671031885</v>
@@ -1721,10 +1701,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45" s="5">
         <v>6281354114545</v>
@@ -1735,10 +1715,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D46" s="5">
         <v>6282384325776</v>
@@ -1749,10 +1729,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D47" s="5">
         <v>628125430591</v>
@@ -1763,10 +1743,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D48" s="5">
         <v>6281254271940</v>
@@ -1777,10 +1757,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D49" s="5">
         <v>6281264344324</v>
@@ -1791,10 +1771,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D50" s="5">
         <v>6285600692010</v>
@@ -1805,10 +1785,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D51" s="5">
         <v>6282318182775</v>
@@ -1819,10 +1799,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D52" s="5">
         <v>6281366949153</v>
@@ -1833,10 +1813,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D53" s="5">
         <v>6282377588910</v>
@@ -1847,10 +1827,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D54" s="5">
         <v>6282160267472</v>
@@ -1861,10 +1841,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D55" s="5">
         <v>628112242273</v>
@@ -1875,10 +1855,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D56" s="5">
         <v>6282374112367</v>
@@ -1889,10 +1869,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D57" s="5">
         <v>628563920328</v>
@@ -1903,10 +1883,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D58" s="5">
         <v>6281371497311</v>
@@ -1917,10 +1897,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D59" s="5">
         <v>6281366326217</v>
@@ -1931,10 +1911,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D60" s="5">
         <v>6281366225420</v>
@@ -1945,10 +1925,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D61" s="5">
         <v>628112366333</v>
@@ -1959,10 +1939,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D62" s="5">
         <v>628977781044</v>
@@ -1973,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D63" s="5">
         <v>6285372001003</v>
@@ -1987,7 +1967,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2001,10 +1981,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D65" s="5">
         <v>6281210698694</v>
@@ -2015,10 +1995,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D66" s="5">
         <v>6282291297784</v>
@@ -2029,10 +2009,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D67" s="5">
         <v>6282175745331</v>
@@ -2043,10 +2023,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D68" s="5">
         <v>6282291156515</v>
@@ -2057,10 +2037,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D69" s="5">
         <v>6282269846649</v>
@@ -2071,10 +2051,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D70" s="5">
         <v>6282262264479</v>
@@ -2085,10 +2065,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D71" s="5">
         <v>6281288874771</v>
@@ -2099,10 +2079,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D72" s="5">
         <v>6287773612170</v>
@@ -2113,7 +2093,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C73" t="s">
         <v>4</v>
@@ -2127,10 +2107,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D74" s="5">
         <v>6281253966650</v>
@@ -2141,10 +2121,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D75" s="5">
         <v>6287893302427</v>
@@ -2155,10 +2135,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D76" s="5">
         <v>6281287041893</v>
@@ -2169,10 +2149,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D77" s="5">
         <v>6282179492928</v>
@@ -2183,10 +2163,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D78" s="5">
         <v>6287773877246</v>
@@ -2197,10 +2177,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D79" s="5">
         <v>6282233451875</v>
@@ -2211,10 +2191,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D80" s="5">
         <v>6282190595956</v>
@@ -2225,10 +2205,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D81" s="5">
         <v>6285342185255</v>
@@ -2239,10 +2219,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D82" s="5">
         <v>6281573408363</v>
@@ -2253,10 +2233,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D83" s="5">
         <v>6281366180479</v>
@@ -2267,10 +2247,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D84" s="5">
         <v>6285244778182</v>
@@ -2281,10 +2261,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D85" s="5">
         <v>6282158342714</v>
@@ -2295,10 +2275,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D86" s="5">
         <v>6281255606376</v>
@@ -2309,7 +2289,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2323,10 +2303,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D88" s="5">
         <v>6281258108708</v>
@@ -2337,10 +2317,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D89" s="5">
         <v>6281346469006</v>
@@ -2351,10 +2331,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D90" s="5">
         <v>6281161600799</v>
@@ -2365,10 +2345,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D91" s="5">
         <v>6282251547343</v>
@@ -2379,10 +2359,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="5">
         <v>6281221962550</v>
@@ -2393,10 +2373,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D93" s="5">
         <v>6285339359961</v>
@@ -2407,10 +2387,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D94" s="5">
         <v>6281376044242</v>
@@ -2421,10 +2401,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D95" s="5">
         <v>6282152550704</v>
@@ -2435,10 +2415,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D96" s="5">
         <v>6285179564769</v>
@@ -2449,10 +2429,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D97" s="5">
         <v>6281372357808</v>
@@ -2463,10 +2443,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D98" s="5">
         <v>6285299332500</v>
@@ -2477,10 +2457,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D99" s="5">
         <v>6282176356663</v>
@@ -2491,10 +2471,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D100" s="5">
         <v>6282283671293</v>
@@ -2505,10 +2485,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D101" s="5">
         <v>6281253031967</v>
@@ -2519,7 +2499,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2533,10 +2513,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D103" s="5">
         <v>6282339842411</v>
@@ -2547,10 +2527,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D104" s="5">
         <v>6281908321627</v>
@@ -2561,10 +2541,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D105" s="5">
         <v>6281347488670</v>
@@ -2575,7 +2555,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2589,10 +2569,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D107" s="5">
         <v>6285399871335</v>
@@ -2603,7 +2583,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C108" t="s">
         <v>4</v>
@@ -2617,10 +2597,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C109" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D109" s="5">
         <v>6287850972994</v>
@@ -2631,10 +2611,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C110" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D110" s="5">
         <v>6281388434466</v>
@@ -2645,10 +2625,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C111" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D111" s="5">
         <v>628175792815</v>
@@ -2659,10 +2639,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D112" s="5">
         <v>6281251004474</v>
@@ -2673,10 +2653,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C113" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D113" s="5">
         <v>6281233867402</v>
@@ -2687,10 +2667,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C114" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D114" s="5">
         <v>6281313138801</v>
@@ -2701,10 +2681,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C115" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D115" s="5">
         <v>6285382716444</v>
@@ -2715,10 +2695,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D116" s="5">
         <v>6282347807311</v>
@@ -2729,10 +2709,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D117" s="5">
         <v>6285270738494</v>
@@ -2743,10 +2723,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C118" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D118" s="5">
         <v>6281362881983</v>
@@ -2757,10 +2737,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C119" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D119" s="5">
         <v>6281328051987</v>
@@ -2771,10 +2751,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C120" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D120" s="5">
         <v>628179909449</v>
@@ -2785,10 +2765,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C121" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D121" s="5">
         <v>6285179690563</v>
@@ -2799,7 +2779,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2813,7 +2793,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2827,10 +2807,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C124" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D124" s="5">
         <v>6282220680336</v>
@@ -2841,7 +2821,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2855,10 +2835,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C126" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D126" s="5">
         <v>6281366910477</v>
@@ -2869,10 +2849,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C127" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D127" s="5">
         <v>6281282823277</v>
@@ -2883,10 +2863,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C128" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D128" s="5">
         <v>6287864576207</v>
@@ -2897,10 +2877,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C129" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D129" s="5">
         <v>6281225221849</v>
@@ -2911,10 +2891,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C130" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D130" s="5">
         <v>6281396877443</v>
@@ -2925,7 +2905,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2939,10 +2919,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C132" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D132" s="5">
         <v>6281344726796</v>
@@ -2953,10 +2933,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C133" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D133" s="5">
         <v>6285290206985</v>
@@ -2967,10 +2947,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C134" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D134" s="5">
         <v>6281287838799</v>
@@ -2981,10 +2961,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C135" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D135" s="5">
         <v>6281313671103</v>
@@ -2995,10 +2975,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C136" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D136" s="5">
         <v>6281361210022</v>
@@ -3009,10 +2989,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C137" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D137" s="5">
         <v>6282316642828</v>
@@ -3023,10 +3003,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C138" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D138" s="5">
         <v>628126617899</v>
@@ -3037,7 +3017,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3051,10 +3031,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C140" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D140" s="5">
         <v>6283824248889</v>
@@ -3065,10 +3045,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C141" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D141" s="5">
         <v>6281379271323</v>
@@ -3079,10 +3059,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C142" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D142" s="5">
         <v>6281368263411</v>
@@ -3093,10 +3073,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C143" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D143" s="5">
         <v>6281371392500</v>
@@ -3107,10 +3087,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C144" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D144" s="5">
         <v>6285878253439</v>
@@ -3121,10 +3101,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C145" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D145" s="5">
         <v>6282258786173</v>
@@ -3135,10 +3115,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C146" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D146" s="5">
         <v>6281527758911</v>
@@ -3149,10 +3129,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D147" s="5">
         <v>6281513193728</v>
@@ -3163,10 +3143,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C148" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D148" s="5">
         <v>6281908010668</v>
@@ -3177,10 +3157,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C149" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D149" s="5">
         <v>628122256050</v>
@@ -3191,10 +3171,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C150" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D150" s="5">
         <v>6282237902202</v>
@@ -3205,10 +3185,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C151" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D151" s="5">
         <v>6287775639870</v>
@@ -3219,10 +3199,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C152" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D152" s="5">
         <v>6282122337554</v>
@@ -3233,10 +3213,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C153" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D153" s="5">
         <v>628129068918</v>
@@ -3247,7 +3227,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C154" t="s">
         <v>6</v>
@@ -3261,10 +3241,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C155" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D155" s="5">
         <v>6285215073442</v>
@@ -3275,10 +3255,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C156" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D156" s="5">
         <v>6281253538492</v>
@@ -3289,10 +3269,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C157" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D157" s="5">
         <v>628161492281</v>
@@ -3303,10 +3283,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C158" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D158" s="5">
         <v>628127281278</v>
@@ -3317,10 +3297,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C159" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D159" s="5">
         <v>62811446022</v>
@@ -3331,10 +3311,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C160" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D160" s="5">
         <v>6282149672646</v>
@@ -3345,10 +3325,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C161" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D161" s="5">
         <v>6281332661026</v>
@@ -3359,10 +3339,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C162" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D162" s="5">
         <v>6281244117727</v>
@@ -3373,10 +3353,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C163" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D163" s="5">
         <v>6281282576404</v>
@@ -3387,10 +3367,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C164" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D164" s="5">
         <v>6285526314282</v>
@@ -3401,10 +3381,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C165" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D165" s="5">
         <v>6285336888367</v>
@@ -3415,10 +3395,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C166" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D166" s="5">
         <v>6281317579072</v>
@@ -3429,10 +3409,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C167" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D167" s="5">
         <v>6281342636040</v>
@@ -3443,10 +3423,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C168" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D168" s="5">
         <v>628892359132</v>
@@ -3457,10 +3437,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C169" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D169" s="5">
         <v>6285719030806</v>
@@ -3471,10 +3451,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C170" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D170" s="5">
         <v>6281376177653</v>
@@ -3485,10 +3465,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C171" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D171" s="5">
         <v>6282169178125</v>
@@ -3499,7 +3479,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3513,10 +3493,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C173" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D173" s="5">
         <v>6285640789477</v>
@@ -3527,7 +3507,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C174" t="s">
         <v>4</v>
@@ -3541,10 +3521,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C175" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D175" s="5">
         <v>6285693140224</v>
@@ -3555,10 +3535,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C176" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D176" s="5">
         <v>6282156658001</v>
@@ -3569,10 +3549,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C177" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D177" s="5">
         <v>6281225203000</v>
@@ -3583,10 +3563,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C178" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D178" s="5">
         <v>6285821165819</v>
@@ -3597,10 +3577,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C179" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D179" s="5">
         <v>6285105421555</v>
@@ -3611,10 +3591,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C180" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D180" s="5">
         <v>6281275590834</v>
@@ -3625,10 +3605,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C181" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D181" s="5">
         <v>6282256260069</v>
@@ -3639,10 +3619,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C182" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D182" s="5">
         <v>6281703323610</v>
@@ -3653,10 +3633,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C183" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D183" s="5">
         <v>6285268534394</v>
@@ -3667,10 +3647,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D184" s="5">
         <v>628812140812</v>
@@ -3681,10 +3661,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C185" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D185" s="5">
         <v>6285892709208</v>
@@ -3695,10 +3675,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C186" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D186" s="5">
         <v>6281294262563</v>
@@ -3709,10 +3689,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C187" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D187" s="5">
         <v>6285296549306</v>
@@ -3723,10 +3703,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C188" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D188" s="5">
         <v>6282191429366</v>
@@ -3737,7 +3717,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3751,10 +3731,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C190" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D190" s="5">
         <v>6282189001079</v>
@@ -3765,10 +3745,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C191" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D191" s="5">
         <v>6281289379830</v>
@@ -3779,10 +3759,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C192" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D192" s="5">
         <v>6281283023362</v>
@@ -3793,10 +3773,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C193" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D193" s="5">
         <v>6282154277675</v>
@@ -3807,10 +3787,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C194" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D194" s="5">
         <v>6281803623556</v>
@@ -3821,10 +3801,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C195" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D195" s="5">
         <v>6282117820003</v>
@@ -3835,7 +3815,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3849,10 +3829,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C197" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D197" s="5">
         <v>6285287672403</v>
@@ -3863,10 +3843,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C198" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D198" s="5">
         <v>6281346041933</v>
@@ -3877,10 +3857,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C199" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D199" s="5">
         <v>6285758757011</v>
@@ -3891,10 +3871,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C200" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D200" s="5">
         <v>6282249213408</v>
@@ -3905,10 +3885,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C201" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D201" s="5">
         <v>6281803286661</v>
@@ -3919,10 +3899,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C202" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D202" s="5">
         <v>6285735715666</v>
@@ -3933,10 +3913,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D203" s="5">
         <v>628124412929</v>
@@ -3947,10 +3927,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D204" s="5">
         <v>6281298137172</v>
@@ -3961,10 +3941,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C205" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D205" s="5">
         <v>6285334927759</v>
@@ -3975,10 +3955,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C206" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D206" s="5">
         <v>6285235078077</v>
@@ -3989,10 +3969,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C207" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D207" s="5">
         <v>6285223402578</v>
@@ -4003,10 +3983,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C208" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D208" s="5">
         <v>6281317645013</v>
@@ -4017,10 +3997,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C209" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D209" s="5">
         <v>6281241906031</v>
@@ -4031,10 +4011,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C210" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D210" s="5">
         <v>6285107019563</v>
@@ -4045,10 +4025,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C211" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D211" s="5">
         <v>6282286702673</v>
@@ -4059,10 +4039,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C212" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D212" s="5">
         <v>6281295393840</v>
@@ -4073,10 +4053,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C213" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D213" s="5">
         <v>6281310170178</v>
@@ -4087,10 +4067,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C214" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D214" s="5">
         <v>6281361649957</v>
@@ -4101,10 +4081,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C215" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D215" s="5">
         <v>6285229583885</v>
@@ -4115,10 +4095,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C216" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D216" s="5">
         <v>6281355417211</v>
@@ -4129,10 +4109,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C217" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D217" s="5">
         <v>6282223419865</v>
@@ -4143,10 +4123,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C218" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D218" s="5">
         <v>6281260455909</v>
@@ -4157,10 +4137,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C219" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D219" s="5">
         <v>6289612065888</v>
@@ -4171,10 +4151,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C220" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D220" s="5">
         <v>6281241126133</v>
@@ -4185,7 +4165,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4199,7 +4179,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4213,10 +4193,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C223" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D223" s="5">
         <v>6282236295004</v>
@@ -4227,130 +4207,27 @@
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C224" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D224" s="5">
         <v>6281513135757</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="3">
-        <v>224</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D225" s="5"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="3">
-        <v>225</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D226" s="5"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="3">
-        <v>226</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D227" s="5"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="3">
-        <v>227</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D228" s="5"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="3">
-        <v>228</v>
-      </c>
-      <c r="B229" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D229" s="5"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="3">
-        <v>229</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D230" s="5"/>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="3">
-        <v>230</v>
-      </c>
-      <c r="B231" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D231" s="5"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="3">
-        <v>231</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D232" s="5"/>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="3">
-        <v>232</v>
-      </c>
-      <c r="B233" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D233" s="5"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="3">
-        <v>233</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D234" s="5"/>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="3">
-        <v>234</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D235" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="8" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D225:D235">
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
